--- a/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2012 (J12).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2012 (J12).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,308 +444,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Centaur</t>
+          <t>('Centaur', ['Token Creature — Centaur', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Centaur</t>
+          <t>('Command Tower', ['Land', '{T}: Add one mana of any color in your commander’s color identity.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>('Flusterstorm', ['{U}', 'Instant', 'Counter target instant or sorcery spell unless its controller pays {1}.', 'Storm (When you cast this spell, copy it for each spell cast before it this turn. You may choose new targets for the copies.)'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Command Tower</t>
+          <t>('Karakas', ['Legendary Land', '{T}: Add {W}.', '{T}: Return target legendary creature to its owner’s hand.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>('Karmic Guide', ['{3}{W}{W}', 'Creature — Angel Spirit', 'Flying, protection from black', 'Echo {3}{W}{W} (At the beginning of your upkeep, if this came under your control since the beginning of your last upkeep, sacrifice it unless you pay its echo cost.)', 'When Karmic Guide enters the battlefield, return target creature card from your graveyard to the battlefield.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{T}: Add one mana of any color in your commander’s color identity.</t>
+          <t>('Noble Hierarch', ['{G}', 'Creature — Human Druid', 'Exalted (Whenever a creature you control attacks alone, that creature gets +1/+1 until end of turn.)', '{T}: Add {G}, {W}, or {U}.', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Flusterstorm</t>
+          <t>('Sneak Attack', ['{3}{R}', 'Enchantment', '{R}: You may put a creature card from your hand onto the battlefield. That creature gains haste. Sacrifice the creature at the beginning of the next end step.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{U}</t>
+          <t>('Sword of Light and Shadow', ['{3}', 'Artifact — Equipment', 'Equipped creature gets +2/+2 and has protection from white and from black.', 'Whenever equipped creature deals combat damage to a player, you gain 3 life and you may return up to one target creature card from your graveyard to your hand.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Counter target instant or sorcery spell unless its controller pays {1}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Storm (When you cast this spell, copy it for each spell cast before it this turn. You may choose new targets for the copies.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Karakas</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Legendary Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{T}: Add {W}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{T}: Return target legendary creature to its owner’s hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Karmic Guide</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{3}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Creature — Angel Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Flying, protection from black</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Echo {3}{W}{W} (At the beginning of your upkeep, if this came under your control since the beginning of your last upkeep, sacrifice it unless you pay its echo cost.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>When Karmic Guide enters the battlefield, return target creature card from your graveyard to the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Noble Hierarch</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Creature — Human Druid</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Exalted (Whenever a creature you control attacks alone, that creature gets +1/+1 until end of turn.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>{T}: Add {G}, {W}, or {U}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Sneak Attack</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>{3}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>{R}: You may put a creature card from your hand onto the battlefield. That creature gains haste. Sacrifice the creature at the beginning of the next end step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Sword of Light and Shadow</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>{3}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Artifact — Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Equipped creature gets +2/+2 and has protection from white and from black.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Whenever equipped creature deals combat damage to a player, you gain 3 life and you may return up to one target creature card from your graveyard to your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Equip {2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Xiahou Dun, the One-Eyed</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{2}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Human Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Horsemanship (This creature can’t be blocked except by creatures with horsemanship.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Sacrifice Xiahou Dun, the One-Eyed: Return target black card from your graveyard to your hand. Activate this ability only during your turn, before attackers are declared.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>3/2</t>
+          <t>('Xiahou Dun, the One-Eyed', ['{2}{B}{B}', 'Legendary Creature — Human Soldier', 'Horsemanship (This creature can’t be blocked except by creatures with horsemanship.)', 'Sacrifice Xiahou Dun, the One-Eyed: Return target black card from your graveyard to your hand. Activate this ability only during your turn, before attackers are declared.', '3/2'])</t>
         </is>
       </c>
     </row>
